--- a/Dr.Zhang/all.xlsx
+++ b/Dr.Zhang/all.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\xuan\data_analysis\Dr.Zhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE781053-2BCB-400D-9152-CAD049858818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001F514-9FA0-4FD6-8717-7C0011A8270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="008_0" sheetId="1" r:id="rId1"/>
     <sheet name="remove_008" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="264">
   <si>
     <t>feature</t>
   </si>
@@ -813,6 +815,24 @@
   </si>
   <si>
     <t>PFS &lt; 6</t>
+  </si>
+  <si>
+    <t>isomalt</t>
+  </si>
+  <si>
+    <t>lactitol</t>
+  </si>
+  <si>
+    <t>maltitol</t>
+  </si>
+  <si>
+    <t>sacchar</t>
+  </si>
+  <si>
+    <t>sucrlose</t>
+  </si>
+  <si>
+    <t>u-statistic</t>
   </si>
 </sst>
 </file>
@@ -10033,7 +10053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835AD0B-AF78-42C2-8436-1C8F0C184597}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -10141,4 +10161,7278 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF9268-B7F1-4D13-A600-34E4278B48B1}">
+  <dimension ref="A1:E259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0.91064896592114397</v>
+      </c>
+      <c r="D2">
+        <v>68.5</v>
+      </c>
+      <c r="E2">
+        <v>0.75189316902508896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>42.5</v>
+      </c>
+      <c r="C3">
+        <v>0.88141018146351602</v>
+      </c>
+      <c r="D3">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>0.728798310840301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>35.5</v>
+      </c>
+      <c r="C4">
+        <v>0.50170026316522098</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>0.72860475379821898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>0.91093546055160901</v>
+      </c>
+      <c r="D5">
+        <v>70.5</v>
+      </c>
+      <c r="E5">
+        <v>0.65908516794462602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0.55376816474699297</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>8.8852854271612602E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0.27561020100672201</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>0.82399419915316396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>0.90366262486106996</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>0.86462482499434801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>55.5</v>
+      </c>
+      <c r="C11">
+        <v>0.454379708922307</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>0.46714550977935998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>52.5</v>
+      </c>
+      <c r="C12">
+        <v>0.60139544497214703</v>
+      </c>
+      <c r="D12">
+        <v>54.5</v>
+      </c>
+      <c r="E12">
+        <v>0.61385648919385705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>56.5</v>
+      </c>
+      <c r="C13">
+        <v>0.41065473662547702</v>
+      </c>
+      <c r="D13">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>0.59105268109577702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>0.62301916917298705</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>0.72518256007272797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>0.28981075548741903</v>
+      </c>
+      <c r="D15">
+        <v>79.5</v>
+      </c>
+      <c r="E15">
+        <v>0.25215842806842098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0.15043537697999901</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>0.35018158299466801</v>
+      </c>
+      <c r="D17">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>0.72828123634994901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>0.67390659600035896</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>0.58258203570648803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0.69113495200451702</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D20">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>0.21930264967931801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>0.66874792233564095</v>
+      </c>
+      <c r="D21">
+        <v>68.5</v>
+      </c>
+      <c r="E21">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>0.60783006861553401</v>
+      </c>
+      <c r="D22">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>0.56426690137495195</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>0.97408690501436301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0.27281959428712499</v>
+      </c>
+      <c r="D24">
+        <v>63.5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>0.79318796433044603</v>
+      </c>
+      <c r="D25">
+        <v>94.5</v>
+      </c>
+      <c r="E25">
+        <v>4.9700015360476101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>45.5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>67.5</v>
+      </c>
+      <c r="E26">
+        <v>0.80077005663532197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>49.5</v>
+      </c>
+      <c r="C27">
+        <v>0.76491702743398904</v>
+      </c>
+      <c r="D27">
+        <v>64.5</v>
+      </c>
+      <c r="E27">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0.68051579162074605</v>
+      </c>
+      <c r="D28">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>0.56191439517823305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0.49391851026915101</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <v>0.26172929939877898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0.24550274522934001</v>
+      </c>
+      <c r="D30">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>0.87421362905475397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>56.5</v>
+      </c>
+      <c r="C31">
+        <v>0.39201743601716998</v>
+      </c>
+      <c r="D31">
+        <v>68.5</v>
+      </c>
+      <c r="E31">
+        <v>0.74228555766758597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>42.5</v>
+      </c>
+      <c r="C32">
+        <v>0.881351893749862</v>
+      </c>
+      <c r="D32">
+        <v>79.5</v>
+      </c>
+      <c r="E32">
+        <v>0.312901495753655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>0.66874792233564095</v>
+      </c>
+      <c r="D34">
+        <v>68.5</v>
+      </c>
+      <c r="E34">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>0.60783006861553401</v>
+      </c>
+      <c r="D35">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>0.56426690137495195</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>0.97408690501436301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>37.5</v>
+      </c>
+      <c r="C37">
+        <v>0.59032579900791804</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <v>0.92232923285981905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>45.5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>67.5</v>
+      </c>
+      <c r="E38">
+        <v>0.800963072854882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>49.5</v>
+      </c>
+      <c r="C39">
+        <v>0.76491702743398904</v>
+      </c>
+      <c r="D39">
+        <v>64.5</v>
+      </c>
+      <c r="E39">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>0.68062810523650796</v>
+      </c>
+      <c r="D40">
+        <v>71.5</v>
+      </c>
+      <c r="E40">
+        <v>0.53628743486601405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>45.5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>67.5</v>
+      </c>
+      <c r="E41">
+        <v>0.792611467731271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>35.5</v>
+      </c>
+      <c r="C42">
+        <v>0.50159424746356895</v>
+      </c>
+      <c r="D42">
+        <v>73.5</v>
+      </c>
+      <c r="E42">
+        <v>0.52801898242660295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>0.78224029765493897</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>0.19308986657676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>56.5</v>
+      </c>
+      <c r="C44">
+        <v>0.39201743601716998</v>
+      </c>
+      <c r="D44">
+        <v>69</v>
+      </c>
+      <c r="E44">
+        <v>0.71756800295967205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>38.5</v>
+      </c>
+      <c r="C45">
+        <v>0.65181323533458602</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>0.97464674315631195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D46">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>0.66874792233564095</v>
+      </c>
+      <c r="D47">
+        <v>68.5</v>
+      </c>
+      <c r="E47">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>0.60783006861553401</v>
+      </c>
+      <c r="D48">
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>36.5</v>
+      </c>
+      <c r="C49">
+        <v>0.53371039389724795</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+      <c r="E49">
+        <v>0.76733263455009804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>36.5</v>
+      </c>
+      <c r="C50">
+        <v>0.53816052105394496</v>
+      </c>
+      <c r="D50">
+        <v>63.5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>45.5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>67.5</v>
+      </c>
+      <c r="E51">
+        <v>0.800963072854882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>49.5</v>
+      </c>
+      <c r="C52">
+        <v>0.76491702743398904</v>
+      </c>
+      <c r="D52">
+        <v>64.5</v>
+      </c>
+      <c r="E52">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>0.68062810523650796</v>
+      </c>
+      <c r="D53">
+        <v>71.5</v>
+      </c>
+      <c r="E53">
+        <v>0.53628743486601405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>0.90570520380029895</v>
+      </c>
+      <c r="D54">
+        <v>63.5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>35.5</v>
+      </c>
+      <c r="C55">
+        <v>0.50159424746356895</v>
+      </c>
+      <c r="D55">
+        <v>73.5</v>
+      </c>
+      <c r="E55">
+        <v>0.52801898242660295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>0.78224029765493897</v>
+      </c>
+      <c r="D56">
+        <v>43</v>
+      </c>
+      <c r="E56">
+        <v>0.19308986657676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>56.5</v>
+      </c>
+      <c r="C57">
+        <v>0.39201743601716998</v>
+      </c>
+      <c r="D57">
+        <v>69</v>
+      </c>
+      <c r="E57">
+        <v>0.71756800295967205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>0.247499149014306</v>
+      </c>
+      <c r="D58">
+        <v>66</v>
+      </c>
+      <c r="E58">
+        <v>0.874739657981362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>0.90813278560514299</v>
+      </c>
+      <c r="D59">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>0.81998819622994201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <v>0.55376816474699297</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>8.8852854271612602E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>0.43428673098548198</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>4.0171683236444197E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>0.492545608628492</v>
+      </c>
+      <c r="D62">
+        <v>76</v>
+      </c>
+      <c r="E62">
+        <v>0.33371042060783201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D63">
+        <v>76</v>
+      </c>
+      <c r="E63">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D64">
+        <v>73</v>
+      </c>
+      <c r="E64">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D65">
+        <v>74</v>
+      </c>
+      <c r="E65">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D66">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>39</v>
+      </c>
+      <c r="C67">
+        <v>0.68110019651859799</v>
+      </c>
+      <c r="D67">
+        <v>38.5</v>
+      </c>
+      <c r="E67">
+        <v>0.12961885324497599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>43</v>
+      </c>
+      <c r="C69">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D69">
+        <v>61</v>
+      </c>
+      <c r="E69">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D70">
+        <v>61</v>
+      </c>
+      <c r="E70">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D72">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>0.369693110267933</v>
+      </c>
+      <c r="D73">
+        <v>51</v>
+      </c>
+      <c r="E73">
+        <v>0.44836463689059702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>59</v>
+      </c>
+      <c r="C74">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D74">
+        <v>70</v>
+      </c>
+      <c r="E74">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>37</v>
+      </c>
+      <c r="C76">
+        <v>0.58735772236916395</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+      <c r="E76">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>41</v>
+      </c>
+      <c r="C77">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D77">
+        <v>57</v>
+      </c>
+      <c r="E77">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+      <c r="C78">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D78">
+        <v>74</v>
+      </c>
+      <c r="E78">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D80">
+        <v>60</v>
+      </c>
+      <c r="E80">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>0.15043537697999901</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>0.15637572175964401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D82">
+        <v>58</v>
+      </c>
+      <c r="E82">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>60</v>
+      </c>
+      <c r="C83">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D83">
+        <v>66</v>
+      </c>
+      <c r="E83">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>59</v>
+      </c>
+      <c r="C84">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D84">
+        <v>74</v>
+      </c>
+      <c r="E84">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D85">
+        <v>72</v>
+      </c>
+      <c r="E85">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D86">
+        <v>69</v>
+      </c>
+      <c r="E86">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>59</v>
+      </c>
+      <c r="C87">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D87">
+        <v>64</v>
+      </c>
+      <c r="E87">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D88">
+        <v>67</v>
+      </c>
+      <c r="E88">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>48</v>
+      </c>
+      <c r="C89">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D89">
+        <v>66</v>
+      </c>
+      <c r="E89">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D90">
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>5.4691452273534898E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>55</v>
+      </c>
+      <c r="C91">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D91">
+        <v>71</v>
+      </c>
+      <c r="E91">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="C92">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>0.15637572175964401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D93">
+        <v>73</v>
+      </c>
+      <c r="E93">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>54</v>
+      </c>
+      <c r="C94">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D94">
+        <v>61</v>
+      </c>
+      <c r="E94">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>54</v>
+      </c>
+      <c r="C95">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D95">
+        <v>61</v>
+      </c>
+      <c r="E95">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>44.5</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>73</v>
+      </c>
+      <c r="E96">
+        <v>0.518283052840393</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>62</v>
+      </c>
+      <c r="C97">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D97">
+        <v>74</v>
+      </c>
+      <c r="E97">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>69</v>
+      </c>
+      <c r="C98">
+        <v>7.9586317572587495E-2</v>
+      </c>
+      <c r="D98">
+        <v>83</v>
+      </c>
+      <c r="E98">
+        <v>0.21930264967931801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D99">
+        <v>65</v>
+      </c>
+      <c r="E99">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>54</v>
+      </c>
+      <c r="C100">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D100">
+        <v>58</v>
+      </c>
+      <c r="E100">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>0.39077093839389498</v>
+      </c>
+      <c r="D101">
+        <v>63</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D102">
+        <v>68</v>
+      </c>
+      <c r="E102">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>46</v>
+      </c>
+      <c r="C103">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D103">
+        <v>77</v>
+      </c>
+      <c r="E103">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>44</v>
+      </c>
+      <c r="C104">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D104">
+        <v>71</v>
+      </c>
+      <c r="E104">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>43</v>
+      </c>
+      <c r="C105">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D105">
+        <v>73</v>
+      </c>
+      <c r="E105">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D106">
+        <v>73</v>
+      </c>
+      <c r="E106">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>43</v>
+      </c>
+      <c r="C107">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D107">
+        <v>69</v>
+      </c>
+      <c r="E107">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>54</v>
+      </c>
+      <c r="C108">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D108">
+        <v>63</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>47</v>
+      </c>
+      <c r="C109">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D109">
+        <v>69</v>
+      </c>
+      <c r="E109">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>44</v>
+      </c>
+      <c r="C110">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D110">
+        <v>66</v>
+      </c>
+      <c r="E110">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+      <c r="C111">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D111">
+        <v>75</v>
+      </c>
+      <c r="E111">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>48</v>
+      </c>
+      <c r="C112">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D112">
+        <v>64</v>
+      </c>
+      <c r="E112">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>49</v>
+      </c>
+      <c r="C113">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D113">
+        <v>66</v>
+      </c>
+      <c r="E113">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>43</v>
+      </c>
+      <c r="C114">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D114">
+        <v>66</v>
+      </c>
+      <c r="E114">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>55.5</v>
+      </c>
+      <c r="C115">
+        <v>0.45583384123687498</v>
+      </c>
+      <c r="D115">
+        <v>70</v>
+      </c>
+      <c r="E115">
+        <v>0.68205246703539402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>62</v>
+      </c>
+      <c r="C116">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D116">
+        <v>75</v>
+      </c>
+      <c r="E116">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D117">
+        <v>61</v>
+      </c>
+      <c r="E117">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>54</v>
+      </c>
+      <c r="C118">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D118">
+        <v>80</v>
+      </c>
+      <c r="E118">
+        <v>0.29861767444880999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>55</v>
+      </c>
+      <c r="C119">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D119">
+        <v>79</v>
+      </c>
+      <c r="E119">
+        <v>0.32886220869968502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>51</v>
+      </c>
+      <c r="C120">
+        <v>0.69113495200451702</v>
+      </c>
+      <c r="D120">
+        <v>72</v>
+      </c>
+      <c r="E120">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>39</v>
+      </c>
+      <c r="C121">
+        <v>0.69113495200451702</v>
+      </c>
+      <c r="D121">
+        <v>56</v>
+      </c>
+      <c r="E121">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>62</v>
+      </c>
+      <c r="C122">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D122">
+        <v>72</v>
+      </c>
+      <c r="E122">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>68</v>
+      </c>
+      <c r="C123">
+        <v>9.4326725905673203E-2</v>
+      </c>
+      <c r="D123">
+        <v>80</v>
+      </c>
+      <c r="E123">
+        <v>0.29861767444880999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>67</v>
+      </c>
+      <c r="C124">
+        <v>0.11090968528039399</v>
+      </c>
+      <c r="D124">
+        <v>78</v>
+      </c>
+      <c r="E124">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>65</v>
+      </c>
+      <c r="C125">
+        <v>0.15043537697999901</v>
+      </c>
+      <c r="D125">
+        <v>78</v>
+      </c>
+      <c r="E125">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>62</v>
+      </c>
+      <c r="C126">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D126">
+        <v>74</v>
+      </c>
+      <c r="E126">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>54</v>
+      </c>
+      <c r="C127">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D127">
+        <v>67</v>
+      </c>
+      <c r="E127">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>55</v>
+      </c>
+      <c r="C128">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D128">
+        <v>68</v>
+      </c>
+      <c r="E128">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>72</v>
+      </c>
+      <c r="C129">
+        <v>4.5707153258640602E-2</v>
+      </c>
+      <c r="D129">
+        <v>81</v>
+      </c>
+      <c r="E129">
+        <v>0.27028938480169801</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>0.11090968528039399</v>
+      </c>
+      <c r="D130">
+        <v>36</v>
+      </c>
+      <c r="E130">
+        <v>9.5049405349338006E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>56</v>
+      </c>
+      <c r="C131">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D131">
+        <v>67</v>
+      </c>
+      <c r="E131">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>46</v>
+      </c>
+      <c r="C132">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D132">
+        <v>65</v>
+      </c>
+      <c r="E132">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D133">
+        <v>70</v>
+      </c>
+      <c r="E133">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>57</v>
+      </c>
+      <c r="C134">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D134">
+        <v>68</v>
+      </c>
+      <c r="E134">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>63</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>60</v>
+      </c>
+      <c r="C136">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D136">
+        <v>66</v>
+      </c>
+      <c r="E136">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>259</v>
+      </c>
+      <c r="B137">
+        <v>45</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>63</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D138">
+        <v>70</v>
+      </c>
+      <c r="E138">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>54</v>
+      </c>
+      <c r="C139">
+        <v>0.52534786008363699</v>
+      </c>
+      <c r="D139">
+        <v>59</v>
+      </c>
+      <c r="E139">
+        <v>0.82507221593264701</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>56</v>
+      </c>
+      <c r="C140">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D140">
+        <v>67</v>
+      </c>
+      <c r="E140">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>57</v>
+      </c>
+      <c r="C141">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D141">
+        <v>71</v>
+      </c>
+      <c r="E141">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>33</v>
+      </c>
+      <c r="C142">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D142">
+        <v>66</v>
+      </c>
+      <c r="E142">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>34</v>
+      </c>
+      <c r="C143">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D143">
+        <v>52</v>
+      </c>
+      <c r="E143">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>57</v>
+      </c>
+      <c r="C144">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D144">
+        <v>67</v>
+      </c>
+      <c r="E144">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>41</v>
+      </c>
+      <c r="C145">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D145">
+        <v>63</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>59</v>
+      </c>
+      <c r="C146">
+        <v>0.30837558464164599</v>
+      </c>
+      <c r="D146">
+        <v>64</v>
+      </c>
+      <c r="E146">
+        <v>0.97456346709703501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>45</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147">
+        <v>0.43057667070062999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>36.5</v>
+      </c>
+      <c r="C148">
+        <v>0.55088656669953995</v>
+      </c>
+      <c r="D148">
+        <v>55.5</v>
+      </c>
+      <c r="E148">
+        <v>0.65916411317909496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>70</v>
+      </c>
+      <c r="C149">
+        <v>6.6688460281137604E-2</v>
+      </c>
+      <c r="D149">
+        <v>75</v>
+      </c>
+      <c r="E149">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>55</v>
+      </c>
+      <c r="C150">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D150">
+        <v>62</v>
+      </c>
+      <c r="E150">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>45</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>72</v>
+      </c>
+      <c r="E151">
+        <v>0.59040498174855305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>37.5</v>
+      </c>
+      <c r="C152">
+        <v>0.37257394505930702</v>
+      </c>
+      <c r="D152">
+        <v>62</v>
+      </c>
+      <c r="E152">
+        <v>0.95707218853910003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>46</v>
+      </c>
+      <c r="C153">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D153">
+        <v>68</v>
+      </c>
+      <c r="E153">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>64</v>
+      </c>
+      <c r="C154">
+        <v>0.16781788654430499</v>
+      </c>
+      <c r="D154">
+        <v>88</v>
+      </c>
+      <c r="E154">
+        <v>0.122652219780158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>49</v>
+      </c>
+      <c r="C155">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D155">
+        <v>66</v>
+      </c>
+      <c r="E155">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156">
+        <v>45</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>47</v>
+      </c>
+      <c r="C157">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D157">
+        <v>72</v>
+      </c>
+      <c r="E157">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D158">
+        <v>75</v>
+      </c>
+      <c r="E158">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>41</v>
+      </c>
+      <c r="C159">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>56</v>
+      </c>
+      <c r="C160">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>56</v>
+      </c>
+      <c r="C161">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D161">
+        <v>67</v>
+      </c>
+      <c r="E161">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>62</v>
+      </c>
+      <c r="C162">
+        <v>0.22681208951231799</v>
+      </c>
+      <c r="D162">
+        <v>63</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>56</v>
+      </c>
+      <c r="C163">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D163">
+        <v>60</v>
+      </c>
+      <c r="E163">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>56</v>
+      </c>
+      <c r="C164">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D164">
+        <v>66</v>
+      </c>
+      <c r="E164">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>58</v>
+      </c>
+      <c r="C165">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D165">
+        <v>71</v>
+      </c>
+      <c r="E165">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>43</v>
+      </c>
+      <c r="C166">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D166">
+        <v>52</v>
+      </c>
+      <c r="E166">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>56</v>
+      </c>
+      <c r="C167">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D167">
+        <v>66</v>
+      </c>
+      <c r="E167">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>46</v>
+      </c>
+      <c r="C168">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D168">
+        <v>66</v>
+      </c>
+      <c r="E168">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>65</v>
+      </c>
+      <c r="C169">
+        <v>0.15043537697999901</v>
+      </c>
+      <c r="D169">
+        <v>77</v>
+      </c>
+      <c r="E169">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>65</v>
+      </c>
+      <c r="C170">
+        <v>0.15043537697999901</v>
+      </c>
+      <c r="D170">
+        <v>77</v>
+      </c>
+      <c r="E170">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D171">
+        <v>68</v>
+      </c>
+      <c r="E171">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>54</v>
+      </c>
+      <c r="C172">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D172">
+        <v>72</v>
+      </c>
+      <c r="E172">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>57</v>
+      </c>
+      <c r="C173">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D173">
+        <v>70</v>
+      </c>
+      <c r="E173">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>58</v>
+      </c>
+      <c r="C174">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D174">
+        <v>73</v>
+      </c>
+      <c r="E174">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>42</v>
+      </c>
+      <c r="C175">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D175">
+        <v>62</v>
+      </c>
+      <c r="E175">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>40</v>
+      </c>
+      <c r="C176">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D176">
+        <v>62</v>
+      </c>
+      <c r="E176">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>46</v>
+      </c>
+      <c r="C177">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D177">
+        <v>64</v>
+      </c>
+      <c r="E177">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>47</v>
+      </c>
+      <c r="C178">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D178">
+        <v>71</v>
+      </c>
+      <c r="E178">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>52</v>
+      </c>
+      <c r="C179">
+        <v>0.63847365449196103</v>
+      </c>
+      <c r="D179">
+        <v>70</v>
+      </c>
+      <c r="E179">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>59</v>
+      </c>
+      <c r="C180">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D180">
+        <v>75</v>
+      </c>
+      <c r="E180">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>60</v>
+      </c>
+      <c r="C181">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D181">
+        <v>76</v>
+      </c>
+      <c r="E181">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>60.5</v>
+      </c>
+      <c r="C182">
+        <v>0.26331646299755201</v>
+      </c>
+      <c r="D182">
+        <v>58</v>
+      </c>
+      <c r="E182">
+        <v>0.77670657903726903</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>57</v>
+      </c>
+      <c r="C183">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D183">
+        <v>71</v>
+      </c>
+      <c r="E183">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>53</v>
+      </c>
+      <c r="C184">
+        <v>0.58735772236916395</v>
+      </c>
+      <c r="D184">
+        <v>55</v>
+      </c>
+      <c r="E184">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>60</v>
+      </c>
+      <c r="C185">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D185">
+        <v>57</v>
+      </c>
+      <c r="E185">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>55</v>
+      </c>
+      <c r="C186">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D186">
+        <v>61</v>
+      </c>
+      <c r="E186">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>53</v>
+      </c>
+      <c r="C187">
+        <v>0.58735772236916395</v>
+      </c>
+      <c r="D187">
+        <v>71</v>
+      </c>
+      <c r="E187">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>55</v>
+      </c>
+      <c r="C188">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D188">
+        <v>67</v>
+      </c>
+      <c r="E188">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>53</v>
+      </c>
+      <c r="C189">
+        <v>0.58735772236916395</v>
+      </c>
+      <c r="D189">
+        <v>64</v>
+      </c>
+      <c r="E189">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>58</v>
+      </c>
+      <c r="C190">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D190">
+        <v>75</v>
+      </c>
+      <c r="E190">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>56</v>
+      </c>
+      <c r="C191">
+        <v>0.43362079888715899</v>
+      </c>
+      <c r="D191">
+        <v>76</v>
+      </c>
+      <c r="E191">
+        <v>0.430804739491918</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D192">
+        <v>62</v>
+      </c>
+      <c r="E192">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>52</v>
+      </c>
+      <c r="C193">
+        <v>0.63847365449196103</v>
+      </c>
+      <c r="D193">
+        <v>63</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>54</v>
+      </c>
+      <c r="C194">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D194">
+        <v>65</v>
+      </c>
+      <c r="E194">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>56</v>
+      </c>
+      <c r="C195">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D195">
+        <v>68</v>
+      </c>
+      <c r="E195">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>61</v>
+      </c>
+      <c r="C196">
+        <v>0.257065588873369</v>
+      </c>
+      <c r="D196">
+        <v>81</v>
+      </c>
+      <c r="E196">
+        <v>0.27028938480169801</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>51</v>
+      </c>
+      <c r="C197">
+        <v>0.69113495200451702</v>
+      </c>
+      <c r="D197">
+        <v>63</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>55</v>
+      </c>
+      <c r="C198">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D198">
+        <v>79</v>
+      </c>
+      <c r="E198">
+        <v>0.32886220869968502</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>48</v>
+      </c>
+      <c r="C199">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D199">
+        <v>59</v>
+      </c>
+      <c r="E199">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>261</v>
+      </c>
+      <c r="B200">
+        <v>45</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>63</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>47.5</v>
+      </c>
+      <c r="C201">
+        <v>0.88043730075326798</v>
+      </c>
+      <c r="D201">
+        <v>77.5</v>
+      </c>
+      <c r="E201">
+        <v>0.37353760487912102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+      <c r="C202">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D202">
+        <v>65</v>
+      </c>
+      <c r="E202">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>56</v>
+      </c>
+      <c r="C203">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D203">
+        <v>68</v>
+      </c>
+      <c r="E203">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>60</v>
+      </c>
+      <c r="C204">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D204">
+        <v>66</v>
+      </c>
+      <c r="E204">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>60</v>
+      </c>
+      <c r="C205">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D205">
+        <v>63</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>57</v>
+      </c>
+      <c r="C206">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D206">
+        <v>60</v>
+      </c>
+      <c r="E206">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>56</v>
+      </c>
+      <c r="C207">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D207">
+        <v>63</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>59</v>
+      </c>
+      <c r="C208">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D208">
+        <v>59</v>
+      </c>
+      <c r="E208">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>57</v>
+      </c>
+      <c r="C209">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D209">
+        <v>64</v>
+      </c>
+      <c r="E209">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D210">
+        <v>72</v>
+      </c>
+      <c r="E210">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>45</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>72</v>
+      </c>
+      <c r="E211">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>57</v>
+      </c>
+      <c r="C212">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D212">
+        <v>61</v>
+      </c>
+      <c r="E212">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>61</v>
+      </c>
+      <c r="C213">
+        <v>0.257065588873369</v>
+      </c>
+      <c r="D213">
+        <v>70</v>
+      </c>
+      <c r="E213">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>60</v>
+      </c>
+      <c r="C214">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D214">
+        <v>66</v>
+      </c>
+      <c r="E214">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>56</v>
+      </c>
+      <c r="C215">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D215">
+        <v>62</v>
+      </c>
+      <c r="E215">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>49</v>
+      </c>
+      <c r="C216">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D216">
+        <v>59</v>
+      </c>
+      <c r="E216">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>58</v>
+      </c>
+      <c r="C217">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D217">
+        <v>61</v>
+      </c>
+      <c r="E217">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>41</v>
+      </c>
+      <c r="C218">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D218">
+        <v>62</v>
+      </c>
+      <c r="E218">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>59</v>
+      </c>
+      <c r="C219">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D219">
+        <v>76</v>
+      </c>
+      <c r="E219">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>43</v>
+      </c>
+      <c r="C220">
+        <v>0.88493241085902796</v>
+      </c>
+      <c r="D220">
+        <v>49</v>
+      </c>
+      <c r="E220">
+        <v>0.27098717187028099</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>262</v>
+      </c>
+      <c r="B221">
+        <v>45</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>63</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222">
+        <v>49</v>
+      </c>
+      <c r="C222">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D222">
+        <v>65</v>
+      </c>
+      <c r="E222">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223">
+        <v>48</v>
+      </c>
+      <c r="C223">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D223">
+        <v>69</v>
+      </c>
+      <c r="E223">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224">
+        <v>58</v>
+      </c>
+      <c r="C224">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D224">
+        <v>55</v>
+      </c>
+      <c r="E224">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225">
+        <v>59</v>
+      </c>
+      <c r="C225">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D225">
+        <v>60</v>
+      </c>
+      <c r="E225">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226">
+        <v>54</v>
+      </c>
+      <c r="C226">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D226">
+        <v>57</v>
+      </c>
+      <c r="E226">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <v>57</v>
+      </c>
+      <c r="C227">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D227">
+        <v>77</v>
+      </c>
+      <c r="E227">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228">
+        <v>54</v>
+      </c>
+      <c r="C228">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D228">
+        <v>68</v>
+      </c>
+      <c r="E228">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>57</v>
+      </c>
+      <c r="C229">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D229">
+        <v>68</v>
+      </c>
+      <c r="E229">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230">
+        <v>56</v>
+      </c>
+      <c r="C230">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D230">
+        <v>57</v>
+      </c>
+      <c r="E230">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231">
+        <v>58</v>
+      </c>
+      <c r="C231">
+        <v>0.36304199233260998</v>
+      </c>
+      <c r="D231">
+        <v>63</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232">
+        <v>48</v>
+      </c>
+      <c r="C232">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D232">
+        <v>62</v>
+      </c>
+      <c r="E232">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <v>60</v>
+      </c>
+      <c r="C233">
+        <v>0.28993432197093499</v>
+      </c>
+      <c r="D233">
+        <v>72</v>
+      </c>
+      <c r="E233">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <v>55</v>
+      </c>
+      <c r="C234">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D234">
+        <v>69</v>
+      </c>
+      <c r="E234">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <v>54</v>
+      </c>
+      <c r="C235">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D235">
+        <v>64</v>
+      </c>
+      <c r="E235">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <v>31</v>
+      </c>
+      <c r="C236">
+        <v>0.32518054028351501</v>
+      </c>
+      <c r="D236">
+        <v>51</v>
+      </c>
+      <c r="E236">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <v>48</v>
+      </c>
+      <c r="C237">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D237">
+        <v>75</v>
+      </c>
+      <c r="E237">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238">
+        <v>41</v>
+      </c>
+      <c r="C238">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D238">
+        <v>65</v>
+      </c>
+      <c r="E238">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239">
+        <v>57</v>
+      </c>
+      <c r="C239">
+        <v>0.40328092959671902</v>
+      </c>
+      <c r="D239">
+        <v>75</v>
+      </c>
+      <c r="E239">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240">
+        <v>39</v>
+      </c>
+      <c r="C240">
+        <v>0.68177139366294603</v>
+      </c>
+      <c r="D240">
+        <v>68.5</v>
+      </c>
+      <c r="E240">
+        <v>0.75272503332109797</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241">
+        <v>44</v>
+      </c>
+      <c r="C241">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D241">
+        <v>63</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242">
+        <v>47</v>
+      </c>
+      <c r="C242">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D242">
+        <v>70</v>
+      </c>
+      <c r="E242">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <v>56</v>
+      </c>
+      <c r="C243">
+        <v>0.44601622633659199</v>
+      </c>
+      <c r="D243">
+        <v>67</v>
+      </c>
+      <c r="E243">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <v>40</v>
+      </c>
+      <c r="C244">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D244">
+        <v>68</v>
+      </c>
+      <c r="E244">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245">
+        <v>44</v>
+      </c>
+      <c r="C245">
+        <v>0.97126214746352002</v>
+      </c>
+      <c r="D245">
+        <v>67</v>
+      </c>
+      <c r="E245">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246">
+        <v>42</v>
+      </c>
+      <c r="C246">
+        <v>0.85696454575173098</v>
+      </c>
+      <c r="D246">
+        <v>65</v>
+      </c>
+      <c r="E246">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>243</v>
+      </c>
+      <c r="B247">
+        <v>51</v>
+      </c>
+      <c r="C247">
+        <v>0.69113495200451702</v>
+      </c>
+      <c r="D247">
+        <v>60</v>
+      </c>
+      <c r="E247">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248">
+        <v>52</v>
+      </c>
+      <c r="C248">
+        <v>0.63847365449196103</v>
+      </c>
+      <c r="D248">
+        <v>69</v>
+      </c>
+      <c r="E248">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>245</v>
+      </c>
+      <c r="B249">
+        <v>41</v>
+      </c>
+      <c r="C249">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D249">
+        <v>63</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>246</v>
+      </c>
+      <c r="B250">
+        <v>54</v>
+      </c>
+      <c r="C250">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D250">
+        <v>64</v>
+      </c>
+      <c r="E250">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>247</v>
+      </c>
+      <c r="B251">
+        <v>54</v>
+      </c>
+      <c r="C251">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D251">
+        <v>64</v>
+      </c>
+      <c r="E251">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>248</v>
+      </c>
+      <c r="B252">
+        <v>55</v>
+      </c>
+      <c r="C252">
+        <v>0.47856432793331699</v>
+      </c>
+      <c r="D252">
+        <v>65.5</v>
+      </c>
+      <c r="E252">
+        <v>0.89966730676420903</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>249</v>
+      </c>
+      <c r="B253">
+        <v>54</v>
+      </c>
+      <c r="C253">
+        <v>0.53820321554875294</v>
+      </c>
+      <c r="D253">
+        <v>64</v>
+      </c>
+      <c r="E253">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>250</v>
+      </c>
+      <c r="B254">
+        <v>43</v>
+      </c>
+      <c r="C254">
+        <v>0.91384587952093599</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>251</v>
+      </c>
+      <c r="B255">
+        <v>41</v>
+      </c>
+      <c r="C255">
+        <v>0.80061814615590299</v>
+      </c>
+      <c r="D255">
+        <v>59</v>
+      </c>
+      <c r="E255">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256" s="1">
+        <v>19</v>
+      </c>
+      <c r="C256" s="1">
+        <v>5.5395405509821902E-2</v>
+      </c>
+      <c r="D256" s="1">
+        <v>35</v>
+      </c>
+      <c r="E256" s="1">
+        <v>8.3213547960876003E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>253</v>
+      </c>
+      <c r="B257">
+        <v>52</v>
+      </c>
+      <c r="C257">
+        <v>0.63847365449196103</v>
+      </c>
+      <c r="D257">
+        <v>71</v>
+      </c>
+      <c r="E257">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258">
+        <v>35</v>
+      </c>
+      <c r="C258">
+        <v>0.49095069690035298</v>
+      </c>
+      <c r="D258">
+        <v>59</v>
+      </c>
+      <c r="E258">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <v>50</v>
+      </c>
+      <c r="C259">
+        <v>0.74534161490683204</v>
+      </c>
+      <c r="D259">
+        <v>62</v>
+      </c>
+      <c r="E259">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0797B2-8EF1-4560-91CD-F97889EF53A6}">
+  <dimension ref="A1:C258"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>68.5</v>
+      </c>
+      <c r="C1">
+        <v>0.75189316902508896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>0.728798310840301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>0.72860475379821898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>70.5</v>
+      </c>
+      <c r="C4">
+        <v>0.65908516794462602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>8.8852854271612602E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>0.82399419915316396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>0.86462482499434801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0.46714550977935998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>54.5</v>
+      </c>
+      <c r="C11">
+        <v>0.61385648919385705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>0.59105268109577702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>0.72518256007272797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>79.5</v>
+      </c>
+      <c r="C14">
+        <v>0.25215842806842098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>0.72828123634994901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>0.58258203570648803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>0.21930264967931801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>68.5</v>
+      </c>
+      <c r="C20">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>0.97408690501436301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>63.5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>94.5</v>
+      </c>
+      <c r="C24">
+        <v>4.9700015360476101E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>67.5</v>
+      </c>
+      <c r="C25">
+        <v>0.80077005663532197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>64.5</v>
+      </c>
+      <c r="C26">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>0.56191439517823305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>0.26172929939877898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <v>0.87421362905475397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>68.5</v>
+      </c>
+      <c r="C30">
+        <v>0.74228555766758597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>79.5</v>
+      </c>
+      <c r="C31">
+        <v>0.312901495753655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>68.5</v>
+      </c>
+      <c r="C33">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>0.97408690501436301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>0.92232923285981905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>67.5</v>
+      </c>
+      <c r="C37">
+        <v>0.800963072854882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>64.5</v>
+      </c>
+      <c r="C38">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>71.5</v>
+      </c>
+      <c r="C39">
+        <v>0.53628743486601405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>67.5</v>
+      </c>
+      <c r="C40">
+        <v>0.792611467731271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>73.5</v>
+      </c>
+      <c r="C41">
+        <v>0.52801898242660295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>0.19308986657676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>0.71756800295967205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>0.97464674315631195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>68.5</v>
+      </c>
+      <c r="C46">
+        <v>0.742352456489069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>0.76397791856137198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>0.76733263455009804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>63.5</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>67.5</v>
+      </c>
+      <c r="C50">
+        <v>0.800963072854882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>64.5</v>
+      </c>
+      <c r="C51">
+        <v>0.949621853041002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>71.5</v>
+      </c>
+      <c r="C52">
+        <v>0.53628743486601405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>63.5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>73.5</v>
+      </c>
+      <c r="C54">
+        <v>0.52801898242660295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>0.19308986657676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>0.71756800295967205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0.874739657981362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>0.81998819622994201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>8.8852854271612602E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>4.0171683236444197E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>0.33371042060783201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>38.5</v>
+      </c>
+      <c r="C66">
+        <v>0.12961885324497599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>57</v>
+      </c>
+      <c r="C71">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>0.44836463689059702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>64</v>
+      </c>
+      <c r="C75">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>0.15637572175964401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>66</v>
+      </c>
+      <c r="C82">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>72</v>
+      </c>
+      <c r="C84">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>69</v>
+      </c>
+      <c r="C85">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>67</v>
+      </c>
+      <c r="C87">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>5.4691452273534898E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>71</v>
+      </c>
+      <c r="C90">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>0.15637572175964401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>73</v>
+      </c>
+      <c r="C92">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>61</v>
+      </c>
+      <c r="C93">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>73</v>
+      </c>
+      <c r="C95">
+        <v>0.518283052840393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>74</v>
+      </c>
+      <c r="C96">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>83</v>
+      </c>
+      <c r="C97">
+        <v>0.21930264967931801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>65</v>
+      </c>
+      <c r="C98">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>58</v>
+      </c>
+      <c r="C99">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>68</v>
+      </c>
+      <c r="C101">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>77</v>
+      </c>
+      <c r="C102">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>71</v>
+      </c>
+      <c r="C103">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>73</v>
+      </c>
+      <c r="C104">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>73</v>
+      </c>
+      <c r="C105">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>69</v>
+      </c>
+      <c r="C106">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>63</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>66</v>
+      </c>
+      <c r="C109">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>75</v>
+      </c>
+      <c r="C110">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>64</v>
+      </c>
+      <c r="C111">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>66</v>
+      </c>
+      <c r="C112">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>66</v>
+      </c>
+      <c r="C113">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>70</v>
+      </c>
+      <c r="C114">
+        <v>0.68205246703539402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>75</v>
+      </c>
+      <c r="C115">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>61</v>
+      </c>
+      <c r="C116">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>80</v>
+      </c>
+      <c r="C117">
+        <v>0.29861767444880999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>79</v>
+      </c>
+      <c r="C118">
+        <v>0.32886220869968502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>72</v>
+      </c>
+      <c r="C119">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>56</v>
+      </c>
+      <c r="C120">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>72</v>
+      </c>
+      <c r="C121">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>80</v>
+      </c>
+      <c r="C122">
+        <v>0.29861767444880999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>78</v>
+      </c>
+      <c r="C123">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>78</v>
+      </c>
+      <c r="C124">
+        <v>0.36102476997500699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>74</v>
+      </c>
+      <c r="C125">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>67</v>
+      </c>
+      <c r="C126">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>68</v>
+      </c>
+      <c r="C127">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>81</v>
+      </c>
+      <c r="C128">
+        <v>0.27028938480169801</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>36</v>
+      </c>
+      <c r="C129">
+        <v>9.5049405349338006E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>67</v>
+      </c>
+      <c r="C130">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>65</v>
+      </c>
+      <c r="C131">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>70</v>
+      </c>
+      <c r="C132">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>68</v>
+      </c>
+      <c r="C133">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134">
+        <v>63</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>66</v>
+      </c>
+      <c r="C135">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136">
+        <v>63</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>70</v>
+      </c>
+      <c r="C137">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>59</v>
+      </c>
+      <c r="C138">
+        <v>0.82507221593264701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>67</v>
+      </c>
+      <c r="C139">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>71</v>
+      </c>
+      <c r="C140">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>66</v>
+      </c>
+      <c r="C141">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>52</v>
+      </c>
+      <c r="C142">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>67</v>
+      </c>
+      <c r="C143">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>63</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>64</v>
+      </c>
+      <c r="C145">
+        <v>0.97456346709703501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>0.43057667070062999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>55.5</v>
+      </c>
+      <c r="C147">
+        <v>0.65916411317909496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>75</v>
+      </c>
+      <c r="C148">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>62</v>
+      </c>
+      <c r="C149">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>72</v>
+      </c>
+      <c r="C150">
+        <v>0.59040498174855305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>62</v>
+      </c>
+      <c r="C151">
+        <v>0.95707218853910003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>68</v>
+      </c>
+      <c r="C152">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>88</v>
+      </c>
+      <c r="C153">
+        <v>0.122652219780158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>66</v>
+      </c>
+      <c r="C154">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155">
+        <v>63</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>72</v>
+      </c>
+      <c r="C156">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>75</v>
+      </c>
+      <c r="C157">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>62</v>
+      </c>
+      <c r="C158">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>63</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>67</v>
+      </c>
+      <c r="C160">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>63</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>60</v>
+      </c>
+      <c r="C162">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>66</v>
+      </c>
+      <c r="C163">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>71</v>
+      </c>
+      <c r="C164">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>52</v>
+      </c>
+      <c r="C165">
+        <v>0.50833157355214498</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>66</v>
+      </c>
+      <c r="C166">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>66</v>
+      </c>
+      <c r="C167">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>77</v>
+      </c>
+      <c r="C168">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>77</v>
+      </c>
+      <c r="C169">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>68</v>
+      </c>
+      <c r="C170">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>72</v>
+      </c>
+      <c r="C171">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>70</v>
+      </c>
+      <c r="C172">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>73</v>
+      </c>
+      <c r="C173">
+        <v>0.54954388174617697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>62</v>
+      </c>
+      <c r="C174">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>62</v>
+      </c>
+      <c r="C175">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>64</v>
+      </c>
+      <c r="C176">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>71</v>
+      </c>
+      <c r="C177">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>70</v>
+      </c>
+      <c r="C178">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>75</v>
+      </c>
+      <c r="C179">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>76</v>
+      </c>
+      <c r="C180">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>58</v>
+      </c>
+      <c r="C181">
+        <v>0.77670657903726903</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>71</v>
+      </c>
+      <c r="C182">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>55</v>
+      </c>
+      <c r="C183">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>57</v>
+      </c>
+      <c r="C184">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>61</v>
+      </c>
+      <c r="C185">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>71</v>
+      </c>
+      <c r="C186">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>67</v>
+      </c>
+      <c r="C187">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>64</v>
+      </c>
+      <c r="C188">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>75</v>
+      </c>
+      <c r="C189">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>76</v>
+      </c>
+      <c r="C190">
+        <v>0.430804739491918</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>62</v>
+      </c>
+      <c r="C191">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>63</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>65</v>
+      </c>
+      <c r="C193">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>68</v>
+      </c>
+      <c r="C194">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>81</v>
+      </c>
+      <c r="C195">
+        <v>0.27028938480169801</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>63</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>79</v>
+      </c>
+      <c r="C197">
+        <v>0.32886220869968502</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>59</v>
+      </c>
+      <c r="C198">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199">
+        <v>63</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>77.5</v>
+      </c>
+      <c r="C200">
+        <v>0.37353760487912102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>65</v>
+      </c>
+      <c r="C201">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>68</v>
+      </c>
+      <c r="C202">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>66</v>
+      </c>
+      <c r="C203">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>63</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>60</v>
+      </c>
+      <c r="C205">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>63</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>59</v>
+      </c>
+      <c r="C207">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>64</v>
+      </c>
+      <c r="C208">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>72</v>
+      </c>
+      <c r="C209">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>72</v>
+      </c>
+      <c r="C210">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>61</v>
+      </c>
+      <c r="C211">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>70</v>
+      </c>
+      <c r="C212">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>66</v>
+      </c>
+      <c r="C213">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>62</v>
+      </c>
+      <c r="C214">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>59</v>
+      </c>
+      <c r="C215">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>61</v>
+      </c>
+      <c r="C216">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>62</v>
+      </c>
+      <c r="C217">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>76</v>
+      </c>
+      <c r="C218">
+        <v>0.43103254006573399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>49</v>
+      </c>
+      <c r="C219">
+        <v>0.27098717187028099</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>262</v>
+      </c>
+      <c r="B220">
+        <v>63</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>65</v>
+      </c>
+      <c r="C221">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>69</v>
+      </c>
+      <c r="C222">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>55</v>
+      </c>
+      <c r="C223">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>60</v>
+      </c>
+      <c r="C224">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>57</v>
+      </c>
+      <c r="C225">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>77</v>
+      </c>
+      <c r="C226">
+        <v>0.39509158490414997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>68</v>
+      </c>
+      <c r="C227">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>68</v>
+      </c>
+      <c r="C228">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>57</v>
+      </c>
+      <c r="C229">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>63</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>62</v>
+      </c>
+      <c r="C231">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>72</v>
+      </c>
+      <c r="C232">
+        <v>0.59233895146861104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>69</v>
+      </c>
+      <c r="C233">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>64</v>
+      </c>
+      <c r="C234">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>51</v>
+      </c>
+      <c r="C235">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>75</v>
+      </c>
+      <c r="C236">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>65</v>
+      </c>
+      <c r="C237">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>75</v>
+      </c>
+      <c r="C238">
+        <v>0.46880061743729401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>68.5</v>
+      </c>
+      <c r="C239">
+        <v>0.75272503332109797</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>63</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>70</v>
+      </c>
+      <c r="C241">
+        <v>0.68220100586911903</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>67</v>
+      </c>
+      <c r="C242">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <v>68</v>
+      </c>
+      <c r="C243">
+        <v>0.77681400415548196</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <v>67</v>
+      </c>
+      <c r="C244">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <v>65</v>
+      </c>
+      <c r="C245">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <v>60</v>
+      </c>
+      <c r="C246">
+        <v>0.87486247333428302</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <v>69</v>
+      </c>
+      <c r="C247">
+        <v>0.72899145461630099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>63</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>64</v>
+      </c>
+      <c r="C249">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <v>64</v>
+      </c>
+      <c r="C250">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <v>65.5</v>
+      </c>
+      <c r="C251">
+        <v>0.89966730676420903</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <v>64</v>
+      </c>
+      <c r="C252">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <v>61</v>
+      </c>
+      <c r="C253">
+        <v>0.92471903748676898</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <v>59</v>
+      </c>
+      <c r="C254">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255">
+        <v>35</v>
+      </c>
+      <c r="C255">
+        <v>8.3213547960876003E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>253</v>
+      </c>
+      <c r="B256">
+        <v>71</v>
+      </c>
+      <c r="C256">
+        <v>0.63660163256360003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257">
+        <v>59</v>
+      </c>
+      <c r="C257">
+        <v>0.82549791070463197</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <v>62</v>
+      </c>
+      <c r="C258">
+        <v>0.97487315317773804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>